--- a/Project/Data/Water/Cantons/UR/UR 2011.xlsx
+++ b/Project/Data/Water/Cantons/UR/UR 2011.xlsx
@@ -21,32 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
-  <si>
-    <t>mation</t>
-  </si>
-  <si>
-    <t>pompes)</t>
-  </si>
-  <si>
-    <t>Hiver</t>
-  </si>
-  <si>
-    <t>Eté</t>
-  </si>
-  <si>
-    <t>Année</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>(m3/s)</t>
   </si>
   <si>
-    <t>(MW)</t>
-  </si>
-  <si>
-    <t>(GWh)</t>
-  </si>
-  <si>
     <t>Bürglen (Loreto)</t>
   </si>
   <si>
@@ -126,6 +105,36 @@
   </si>
   <si>
     <t>Stäubenwald</t>
+  </si>
+  <si>
+    <t>idx</t>
+  </si>
+  <si>
+    <t>idx2</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Date Start</t>
+  </si>
+  <si>
+    <t>Date End</t>
+  </si>
+  <si>
+    <t>(MW1)</t>
+  </si>
+  <si>
+    <t>(MW2)</t>
+  </si>
+  <si>
+    <t>(GWh) Winter</t>
+  </si>
+  <si>
+    <t>(GWh) Summer</t>
+  </si>
+  <si>
+    <t>(GWh) Year</t>
   </si>
 </sst>
 </file>
@@ -182,11 +191,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -525,950 +535,964 @@
   <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="E1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
+      <c r="B2" s="2">
+        <v>301500</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1895</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1967</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="J2" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>7.7</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>301500</v>
+        <v>300800</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>1895</v>
+        <v>1900</v>
       </c>
       <c r="E3" s="2">
-        <v>1967</v>
+        <v>1942</v>
       </c>
       <c r="F3" s="3">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="G3" s="3">
-        <v>1.5</v>
+        <v>6.6</v>
       </c>
       <c r="H3" s="3">
-        <v>1.5</v>
+        <v>5.6</v>
       </c>
       <c r="I3" s="3">
-        <v>2.5</v>
+        <v>6.29</v>
       </c>
       <c r="J3" s="3">
-        <v>5.2</v>
+        <v>19.78</v>
       </c>
       <c r="K3" s="3">
-        <v>7.7</v>
+        <v>26.07</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>300100</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1902</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1977</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="G4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>300800</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1900</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1942</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="G4" s="3">
-        <v>6.6</v>
-      </c>
       <c r="H4" s="3">
-        <v>5.6</v>
+        <v>1.95</v>
       </c>
       <c r="I4" s="3">
-        <v>6.29</v>
+        <v>1.6</v>
       </c>
       <c r="J4" s="3">
-        <v>19.78</v>
+        <v>5.3</v>
       </c>
       <c r="K4" s="3">
-        <v>26.07</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>300100</v>
+        <v>301000</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>1902</v>
+        <v>1910</v>
       </c>
       <c r="E5" s="2">
-        <v>1977</v>
+        <v>1969</v>
       </c>
       <c r="F5" s="3">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="G5" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H5" s="3">
-        <v>1.95</v>
+        <v>13</v>
       </c>
       <c r="I5" s="3">
-        <v>1.6</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="J5" s="3">
-        <v>5.3</v>
+        <v>37.5</v>
       </c>
       <c r="K5" s="3">
-        <v>6.9</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>300200</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1914</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2008</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="K6" s="3">
         <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>301000</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1910</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1969</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="G6" s="3">
-        <v>13</v>
-      </c>
-      <c r="H6" s="3">
-        <v>13</v>
-      </c>
-      <c r="I6" s="3">
-        <v>9.7200000000000006</v>
-      </c>
-      <c r="J6" s="3">
-        <v>37.5</v>
-      </c>
-      <c r="K6" s="3">
-        <v>47.22</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>300200</v>
+        <v>600400</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>1914</v>
+        <v>1920</v>
       </c>
       <c r="E7" s="2">
-        <v>2008</v>
+        <v>1958</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2</v>
+        <v>6.6</v>
       </c>
       <c r="G7" s="3">
-        <v>0.9</v>
+        <v>12.76</v>
       </c>
       <c r="H7" s="3">
-        <v>0.89</v>
+        <v>12.76</v>
       </c>
       <c r="I7" s="3">
-        <v>0.7</v>
+        <v>24.36</v>
       </c>
       <c r="J7" s="3">
-        <v>3.3</v>
+        <v>20.59</v>
       </c>
       <c r="K7" s="3">
-        <v>4</v>
+        <v>44.95</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>600400</v>
+        <v>300900</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
-        <v>1920</v>
+        <v>1923</v>
       </c>
       <c r="E8" s="2">
-        <v>1958</v>
+        <v>1998</v>
       </c>
       <c r="F8" s="3">
-        <v>6.6</v>
+        <v>50</v>
       </c>
       <c r="G8" s="3">
-        <v>12.76</v>
+        <v>120</v>
       </c>
       <c r="H8" s="3">
-        <v>12.76</v>
+        <v>120</v>
       </c>
       <c r="I8" s="3">
-        <v>24.36</v>
+        <v>124</v>
       </c>
       <c r="J8" s="3">
-        <v>20.59</v>
+        <v>271</v>
       </c>
       <c r="K8" s="3">
-        <v>44.95</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>300900</v>
+        <v>301200</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2">
-        <v>1923</v>
+        <v>1931</v>
       </c>
       <c r="E9" s="2">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F9" s="3">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="G9" s="3">
-        <v>120</v>
+        <v>1.7</v>
       </c>
       <c r="H9" s="3">
-        <v>120</v>
+        <v>1.7</v>
       </c>
       <c r="I9" s="3">
-        <v>124</v>
+        <v>2.4</v>
       </c>
       <c r="J9" s="3">
-        <v>271</v>
+        <v>5.8</v>
       </c>
       <c r="K9" s="3">
-        <v>395</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>301200</v>
+        <v>600100</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>1931</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1997</v>
+        <v>1947</v>
       </c>
       <c r="F10" s="3">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="G10" s="3">
-        <v>1.7</v>
+        <v>33</v>
       </c>
       <c r="H10" s="3">
-        <v>1.7</v>
+        <v>31.9</v>
       </c>
       <c r="I10" s="3">
-        <v>2.4</v>
+        <v>38.340000000000003</v>
       </c>
       <c r="J10" s="3">
-        <v>5.8</v>
+        <v>17.93</v>
       </c>
       <c r="K10" s="3">
-        <v>8.1999999999999993</v>
+        <v>56.27</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>600100</v>
+        <v>600200</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2">
         <v>1947</v>
       </c>
       <c r="F11" s="3">
-        <v>7</v>
+        <v>1.2</v>
       </c>
       <c r="G11" s="3">
-        <v>33</v>
+        <v>0.54</v>
       </c>
       <c r="H11" s="3">
-        <v>31.9</v>
+        <v>0.62</v>
       </c>
       <c r="I11" s="3">
-        <v>38.340000000000003</v>
+        <v>0.17</v>
       </c>
       <c r="J11" s="3">
-        <v>17.93</v>
+        <v>0.88</v>
       </c>
       <c r="K11" s="3">
-        <v>56.27</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>600200</v>
+        <v>300700</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2">
-        <v>1947</v>
+        <v>1949</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1992</v>
       </c>
       <c r="F12" s="3">
-        <v>1.2</v>
+        <v>24</v>
       </c>
       <c r="G12" s="3">
-        <v>0.54</v>
+        <v>58</v>
       </c>
       <c r="H12" s="3">
-        <v>0.62</v>
+        <v>56</v>
       </c>
       <c r="I12" s="3">
-        <v>0.17</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>0.88</v>
+        <v>190</v>
       </c>
       <c r="K12" s="3">
-        <v>1.05</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>300700</v>
+        <v>301700</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2">
-        <v>1949</v>
+        <v>1955</v>
       </c>
       <c r="E13" s="2">
-        <v>1992</v>
+        <v>2009</v>
       </c>
       <c r="F13" s="3">
-        <v>24</v>
+        <v>3.8</v>
       </c>
       <c r="G13" s="3">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="H13" s="3">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I13" s="3">
-        <v>100</v>
+        <v>11.25</v>
       </c>
       <c r="J13" s="3">
-        <v>190</v>
+        <v>33.75</v>
       </c>
       <c r="K13" s="3">
-        <v>290</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>301700</v>
+        <v>301600</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2">
-        <v>1955</v>
+        <v>1959</v>
       </c>
       <c r="E14" s="2">
         <v>2009</v>
       </c>
       <c r="F14" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1.18</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1.18</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
         <v>3.8</v>
       </c>
-      <c r="G14" s="3">
-        <v>12</v>
-      </c>
-      <c r="H14" s="3">
-        <v>12</v>
-      </c>
-      <c r="I14" s="3">
-        <v>11.25</v>
-      </c>
-      <c r="J14" s="3">
-        <v>33.75</v>
-      </c>
       <c r="K14" s="3">
-        <v>45</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>301600</v>
+        <v>302200</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2">
-        <v>1959</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2009</v>
+        <v>1960</v>
       </c>
       <c r="F15" s="3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3">
-        <v>1.18</v>
+        <v>0.06</v>
       </c>
       <c r="H15" s="3">
-        <v>1.18</v>
+        <v>0.06</v>
       </c>
       <c r="I15" s="3">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="J15" s="3">
-        <v>3.8</v>
+        <v>0.17</v>
       </c>
       <c r="K15" s="3">
-        <v>4.8</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>302200</v>
+        <v>300500</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="F16" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G16" s="3">
-        <v>0.06</v>
+        <v>33.26</v>
       </c>
       <c r="H16" s="3">
-        <v>0.06</v>
+        <v>32.5</v>
       </c>
       <c r="I16" s="3">
-        <v>0.06</v>
+        <v>42</v>
       </c>
       <c r="J16" s="3">
-        <v>0.17</v>
+        <v>102</v>
       </c>
       <c r="K16" s="3">
-        <v>0.23</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>300500</v>
+        <v>300300</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2">
         <v>1961</v>
       </c>
+      <c r="E17" s="2">
+        <v>2002</v>
+      </c>
       <c r="F17" s="3">
-        <v>12</v>
+        <v>0.8</v>
       </c>
       <c r="G17" s="3">
-        <v>33.26</v>
+        <v>2.9</v>
       </c>
       <c r="H17" s="3">
-        <v>32.5</v>
+        <v>2.7</v>
       </c>
       <c r="I17" s="3">
-        <v>42</v>
+        <v>3.6</v>
       </c>
       <c r="J17" s="3">
-        <v>102</v>
+        <v>7.4</v>
       </c>
       <c r="K17" s="3">
-        <v>144</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>300300</v>
+        <v>300400</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2">
-        <v>1961</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2002</v>
+        <v>1962</v>
       </c>
       <c r="F18" s="3">
-        <v>0.8</v>
+        <v>30</v>
       </c>
       <c r="G18" s="3">
-        <v>2.9</v>
+        <v>164.8</v>
       </c>
       <c r="H18" s="3">
-        <v>2.7</v>
+        <v>160</v>
       </c>
       <c r="I18" s="3">
-        <v>3.6</v>
+        <v>126</v>
       </c>
       <c r="J18" s="3">
-        <v>7.4</v>
+        <v>156</v>
       </c>
       <c r="K18" s="3">
-        <v>11</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>300400</v>
+        <v>301800</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2">
         <v>1962</v>
       </c>
       <c r="F19" s="3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G19" s="3">
-        <v>164.8</v>
+        <v>2.27</v>
       </c>
       <c r="H19" s="3">
-        <v>160</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="I19" s="3">
-        <v>126</v>
+        <v>1.98</v>
       </c>
       <c r="J19" s="3">
-        <v>156</v>
+        <v>7.36</v>
       </c>
       <c r="K19" s="3">
-        <v>282</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>301800</v>
+        <v>301300</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2">
         <v>1962</v>
       </c>
+      <c r="E20" s="2">
+        <v>2005</v>
+      </c>
       <c r="F20" s="3">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="G20" s="3">
-        <v>2.27</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H20" s="3">
-        <v>2.1800000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I20" s="3">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="J20" s="3">
-        <v>7.36</v>
+        <v>6.01</v>
       </c>
       <c r="K20" s="3">
-        <v>9.34</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>301300</v>
+        <v>301100</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E21" s="2">
-        <v>2005</v>
+        <v>1997</v>
       </c>
       <c r="F21" s="3">
-        <v>0.7</v>
+        <v>0.83</v>
       </c>
       <c r="G21" s="3">
-        <v>2.2000000000000002</v>
+        <v>7</v>
       </c>
       <c r="H21" s="3">
-        <v>2.2000000000000002</v>
+        <v>7</v>
       </c>
       <c r="I21" s="3">
-        <v>2.14</v>
+        <v>5.9</v>
       </c>
       <c r="J21" s="3">
-        <v>6.01</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K21" s="3">
-        <v>8.15</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>301100</v>
+        <v>301400</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2">
-        <v>1963</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1997</v>
+        <v>1967</v>
       </c>
       <c r="F22" s="3">
-        <v>0.83</v>
+        <v>5.75</v>
       </c>
       <c r="G22" s="3">
-        <v>7</v>
+        <v>20.8</v>
       </c>
       <c r="H22" s="3">
-        <v>7</v>
+        <v>20.5</v>
       </c>
       <c r="I22" s="3">
-        <v>5.9</v>
+        <v>19.649999999999999</v>
       </c>
       <c r="J22" s="3">
-        <v>19.600000000000001</v>
+        <v>72.05</v>
       </c>
       <c r="K22" s="3">
-        <v>25.5</v>
+        <v>91.7</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>301400</v>
+        <v>300600</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="F23" s="3">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="G23" s="3">
-        <v>20.8</v>
+        <v>1.62</v>
       </c>
       <c r="H23" s="3">
-        <v>20.5</v>
+        <v>1.47</v>
       </c>
       <c r="I23" s="3">
-        <v>19.649999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="J23" s="3">
-        <v>72.05</v>
+        <v>4.5</v>
       </c>
       <c r="K23" s="3">
-        <v>91.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>300600</v>
+        <v>301250</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2">
-        <v>1969</v>
+        <v>1996</v>
       </c>
       <c r="F24" s="3">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>1.62</v>
+        <v>0.52</v>
       </c>
       <c r="H24" s="3">
-        <v>1.47</v>
+        <v>0.5</v>
       </c>
       <c r="I24" s="3">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="J24" s="3">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="K24" s="3">
-        <v>5.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>301250</v>
+        <v>300750</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="F25" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G25" s="3">
-        <v>0.52</v>
+        <v>0.72</v>
       </c>
       <c r="H25" s="3">
-        <v>0.5</v>
+        <v>0.72</v>
       </c>
       <c r="I25" s="3">
-        <v>0.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J25" s="3">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K25" s="3">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>300750</v>
+        <v>300950</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2">
         <v>1998</v>
       </c>
       <c r="F26" s="3">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="G26" s="3">
-        <v>0.72</v>
+        <v>1.73</v>
       </c>
       <c r="H26" s="3">
-        <v>0.72</v>
+        <v>1.73</v>
       </c>
       <c r="I26" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="J26" s="3">
-        <v>2.2000000000000002</v>
+        <v>5.05</v>
       </c>
       <c r="K26" s="3">
-        <v>3.3</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>300950</v>
+        <v>301550</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="F27" s="3">
-        <v>46</v>
+        <v>0.16</v>
       </c>
       <c r="G27" s="3">
-        <v>1.73</v>
+        <v>0.3</v>
       </c>
       <c r="H27" s="3">
-        <v>1.73</v>
+        <v>0.3</v>
       </c>
       <c r="I27" s="3">
-        <v>1.5</v>
+        <v>0.33</v>
       </c>
       <c r="J27" s="3">
-        <v>5.05</v>
+        <v>0.66</v>
       </c>
       <c r="K27" s="3">
-        <v>6.55</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>301550</v>
+        <v>300825</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="F28" s="3">
-        <v>0.16</v>
+        <v>0.5</v>
       </c>
       <c r="G28" s="3">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="H28" s="3">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="I28" s="3">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="J28" s="3">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="K28" s="3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="2">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2">
-        <v>300825</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2007</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0.31</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0.31</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="K29" s="3">
-        <v>1</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="2"/>
@@ -2325,17 +2349,6 @@
       <c r="L90" s="2"/>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
   </sheetData>
